--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15292" windowHeight="6030"/>
+    <workbookView windowWidth="20752" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>VirusSpecies</t>
   </si>
   <si>
-    <t>Country.x</t>
+    <t>Country</t>
   </si>
   <si>
     <t>Continents</t>
@@ -4012,7 +4012,7 @@
   <dimension ref="A1:N1169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -44,7 +44,7 @@
     <t>Virus</t>
   </si>
   <si>
-    <t>HostSpecies</t>
+    <t>Hostspecies</t>
   </si>
   <si>
     <t>Detection_method</t>
@@ -59,13 +59,13 @@
     <t>Positivity</t>
   </si>
   <si>
-    <t>VirusOrder</t>
-  </si>
-  <si>
-    <t>VirusFamily</t>
-  </si>
-  <si>
-    <t>VirusSpecies</t>
+    <t>Virusorder</t>
+  </si>
+  <si>
+    <t>Virusfamily</t>
+  </si>
+  <si>
+    <t>Virusspecies</t>
   </si>
   <si>
     <t>Country</t>
@@ -4011,8 +4011,8 @@
   <sheetPr/>
   <dimension ref="A1:N1169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5"/>
